--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>978783.8297260145</v>
+        <v>976124.4390242944</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>254.9769672920048</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.36947747424265</v>
@@ -677,7 +677,7 @@
         <v>319.6758027219778</v>
       </c>
       <c r="I2" t="n">
-        <v>21.67227458005831</v>
+        <v>135.9438818439016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744239</v>
+        <v>28.42897189744232</v>
       </c>
       <c r="S2" t="n">
         <v>164.9659064044097</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.55110095894855</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>96.87005768501137</v>
       </c>
       <c r="G3" t="n">
         <v>136.3091318498218</v>
@@ -756,7 +756,7 @@
         <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254639</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.93520916873163</v>
+        <v>35.9352091687316</v>
       </c>
       <c r="S3" t="n">
         <v>152.4699175854099</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>142.3927733934042</v>
       </c>
       <c r="G4" t="n">
-        <v>10.06334511374456</v>
+        <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.04857142269697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.5463795407247</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.2403064031859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2717278710641</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>258.4286955081647</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>130.4438898689919</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.6143169751139</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -993,7 +993,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.1549927081313</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>103.1131050346882</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>206.3137109670453</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>87.69015319533509</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>109.3569413433135</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0065125199845</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>108.9594166936151</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.5179048891063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793413</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>238.128246056615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>16.09765778288601</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.95073797956</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503965</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>255.2269336503903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>19.86507844888314</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375798</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>44.75138076689305</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>26.05480806223599</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987834192</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444154</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569575</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,10 +3797,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>151.8555862333578</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,16 +3980,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178.798950344441</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="C2" t="n">
-        <v>1178.798950344441</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="D2" t="n">
-        <v>820.5332517376903</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="E2" t="n">
-        <v>820.5332517376903</v>
+        <v>531.9187136203602</v>
       </c>
       <c r="F2" t="n">
-        <v>409.5473469480827</v>
+        <v>524.9732128711568</v>
       </c>
       <c r="G2" t="n">
-        <v>396.0428242468275</v>
+        <v>511.4686901699015</v>
       </c>
       <c r="H2" t="n">
-        <v>73.13797301250645</v>
+        <v>188.5638389355805</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>201.8591892086712</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K2" t="n">
-        <v>265.0589286737679</v>
+        <v>397.7205401363257</v>
       </c>
       <c r="L2" t="n">
-        <v>747.1668848225228</v>
+        <v>747.166884822522</v>
       </c>
       <c r="M2" t="n">
         <v>1300.211423769221</v>
       </c>
       <c r="N2" t="n">
-        <v>1847.572804000529</v>
+        <v>1847.572804000528</v>
       </c>
       <c r="O2" t="n">
         <v>2319.242996180937</v>
@@ -4373,7 +4373,7 @@
         <v>1565.398790408562</v>
       </c>
       <c r="Y2" t="n">
-        <v>1565.398790408562</v>
+        <v>1175.259458432751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>975.6966623221036</v>
+        <v>872.6844575838018</v>
       </c>
       <c r="C3" t="n">
-        <v>801.2436330409766</v>
+        <v>698.2314283026748</v>
       </c>
       <c r="D3" t="n">
-        <v>652.3092233797254</v>
+        <v>549.2970186414235</v>
       </c>
       <c r="E3" t="n">
-        <v>493.0717683742699</v>
+        <v>390.059563635968</v>
       </c>
       <c r="F3" t="n">
-        <v>346.5372104011549</v>
+        <v>292.2110205197949</v>
       </c>
       <c r="G3" t="n">
-        <v>208.8512186336581</v>
+        <v>154.5250287522981</v>
       </c>
       <c r="H3" t="n">
-        <v>105.5729764493631</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
-        <v>215.7981115885389</v>
+        <v>341.9645854074415</v>
       </c>
       <c r="L3" t="n">
-        <v>300.9765233692674</v>
+        <v>690.9002194532286</v>
       </c>
       <c r="M3" t="n">
-        <v>880.7805935960134</v>
+        <v>1270.704289679975</v>
       </c>
       <c r="N3" t="n">
-        <v>1491.637365688262</v>
+        <v>1881.561061772224</v>
       </c>
       <c r="O3" t="n">
         <v>1984.036293344365</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.22677576727</v>
+        <v>2362.226775767269</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="C4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="D4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="E4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="F4" t="n">
-        <v>93.78407599875214</v>
+        <v>220.0586910720115</v>
       </c>
       <c r="G4" t="n">
-        <v>83.61908093436369</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>83.61908093436369</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>83.61908093436369</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>51.24678656800311</v>
@@ -4492,46 +4492,46 @@
         <v>128.9446319797723</v>
       </c>
       <c r="L4" t="n">
-        <v>283.8975582778887</v>
+        <v>283.8975582778888</v>
       </c>
       <c r="M4" t="n">
-        <v>457.6628161503376</v>
+        <v>457.6628161503377</v>
       </c>
       <c r="N4" t="n">
-        <v>632.7309409968808</v>
+        <v>632.730940996881</v>
       </c>
       <c r="O4" t="n">
-        <v>778.4183943752798</v>
+        <v>778.4183943752801</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5584967969146</v>
+        <v>879.5584967969148</v>
       </c>
       <c r="Q4" t="n">
-        <v>865.8752851396169</v>
+        <v>879.5584967969148</v>
       </c>
       <c r="R4" t="n">
-        <v>865.8752851396169</v>
+        <v>879.5584967969148</v>
       </c>
       <c r="S4" t="n">
-        <v>865.8752851396169</v>
+        <v>879.5584967969148</v>
       </c>
       <c r="T4" t="n">
-        <v>865.8752851396169</v>
+        <v>653.0531367936967</v>
       </c>
       <c r="U4" t="n">
-        <v>865.8752851396169</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="V4" t="n">
-        <v>611.1907969337301</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="W4" t="n">
-        <v>321.7736268967695</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="X4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.78407599875214</v>
+        <v>363.8897753077733</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.9647483293834</v>
+        <v>1634.071242659839</v>
       </c>
       <c r="C5" t="n">
-        <v>842.9647483293834</v>
+        <v>1265.108725719427</v>
       </c>
       <c r="D5" t="n">
-        <v>842.9647483293834</v>
+        <v>1265.108725719427</v>
       </c>
       <c r="E5" t="n">
-        <v>842.9647483293834</v>
+        <v>879.3204731211832</v>
       </c>
       <c r="F5" t="n">
-        <v>431.9788435397758</v>
+        <v>468.3345683315757</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4571,16 +4571,16 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014927</v>
+        <v>1196.167056847984</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1382.866469673392</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518883</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
         <v>2317.163367625255</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2274.36278597881</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909846</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="V5" t="n">
-        <v>1606.569838566275</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="W5" t="n">
-        <v>1606.569838566275</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="X5" t="n">
-        <v>1233.104080305195</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="Y5" t="n">
-        <v>842.9647483293834</v>
+        <v>2020.671082723961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>544.5457749724848</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.489049537426</v>
+        <v>724.0431113270896</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
         <v>1907.658103858851</v>
@@ -4683,13 +4683,13 @@
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.921376705203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>471.921376705203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>471.921376705203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>324.0082831228099</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>324.0082831228099</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>155.4014381181933</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>155.4014381181933</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>920.7035067467505</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>920.7035067467505</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="U7" t="n">
-        <v>920.7035067467505</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="V7" t="n">
-        <v>920.7035067467505</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="W7" t="n">
-        <v>920.7035067467505</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="X7" t="n">
-        <v>692.7139558487331</v>
+        <v>259.6444744135034</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.921376705203</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1975.598450347025</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2349.064208608105</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2349.064208608105</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2349.064208608105</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.064208608105</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.598450347025</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.598450347025</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.7476305124051</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>479.8114475844982</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>329.6948081721624</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384192</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1279.178225384192</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1051.188674486175</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>830.3960953426448</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1485.490329133575</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="F11" t="n">
         <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706889</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656954</v>
+        <v>695.1615405656966</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345376</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3462.960727064504</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3462.960727064504</v>
+        <v>2988.463914704703</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.19207179439</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.19207179439</v>
+        <v>2262.229501173509</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>1872.090169197697</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626168</v>
+        <v>889.474037062618</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720355</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052878</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.0356491047324</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0356491047324</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0356491047324</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648149</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344816</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.64459384277</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636883</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999224</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>586.5533847019051</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.760805558375</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.38435762632</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>680.4481746984131</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860774</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036843</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,7 +5513,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728308</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>398.6787020904377</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>251.7887545925273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154063</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038356</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797756</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6491,22 +6491,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,10 +6713,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474267</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7126,19 +7126,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362704</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
         <v>1433.701365648819</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.012762333092</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443771</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>16.96287513099475</v>
       </c>
       <c r="K2" t="n">
-        <v>38.01004479012866</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>283.659586810492</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>29.11089843987683</v>
+        <v>29.11089843987678</v>
       </c>
       <c r="K3" t="n">
-        <v>137.0243543672226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>266.4214366313722</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>178.7586225842976</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>82.89611620532975</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>291.3753239650815</v>
       </c>
       <c r="M6" t="n">
-        <v>369.9956874605996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755227727</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>141.9995857660718</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.31407529283099</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.171855681103</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922615</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>48.39475227997597</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>149.4264805093828</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253483</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823136</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.95754073885388</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516643</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.8640922513193</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>120.3791545843332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.54986409393049</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>885816.476744411</v>
+        <v>885816.4767444115</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975285.3032431433</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>975285.3032431433</v>
+        <v>975285.3032431431</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975285.303243143</v>
+        <v>975285.3032431431</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.3032431429</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253555</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509178</v>
+        <v>402924.0843509177</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295032</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="I2" t="n">
-        <v>443930.6298295033</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295033</v>
-      </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295035</v>
@@ -26350,10 +26350,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992431</v>
+        <v>678074.6944992433</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555631</v>
+        <v>102513.4470555628</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545771</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704297</v>
+        <v>189308.268770428</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.40371273091</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202383</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220641.3432238818</v>
+        <v>220641.3432238817</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7401.949902073127</v>
+        <v>7401.949902073128</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.36846171968</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719589</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719574</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719586</v>
+        <v>7507.368461719688</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-530201.8079762008</v>
+        <v>-530201.8079762012</v>
       </c>
       <c r="C6" t="n">
-        <v>65233.95493058847</v>
+        <v>65233.95493058879</v>
       </c>
       <c r="D6" t="n">
-        <v>-66163.67208425977</v>
+        <v>-66163.6720842599</v>
       </c>
       <c r="E6" t="n">
-        <v>-3192.507973118089</v>
+        <v>-3413.639287094014</v>
       </c>
       <c r="F6" t="n">
-        <v>145992.462773447</v>
+        <v>145957.7248480129</v>
       </c>
       <c r="G6" t="n">
-        <v>335300.7315438769</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="H6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="I6" t="n">
-        <v>335300.7315438763</v>
+        <v>335265.9936184407</v>
       </c>
       <c r="J6" t="n">
-        <v>167695.553733894</v>
+        <v>167660.8158084584</v>
       </c>
       <c r="K6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="L6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="M6" t="n">
-        <v>253403.327831146</v>
+        <v>253368.5899057101</v>
       </c>
       <c r="N6" t="n">
-        <v>285461.1574118528</v>
+        <v>285426.4194864174</v>
       </c>
       <c r="O6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="P6" t="n">
-        <v>335300.7315438767</v>
+        <v>335265.9936184407</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719847</v>
+        <v>480.898435171985</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490087</v>
+        <v>969.2208239490099</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719847</v>
+        <v>480.898435171985</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660804</v>
+        <v>112.5776651660801</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.532357486452528e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489699</v>
+        <v>328.635991848971</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506401</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506401</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489699</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506401</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>127.7568743714758</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114.2716072638433</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.9820826909188</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>48.1991547083725</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.78292798254637</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>3.028274629527004</v>
       </c>
       <c r="G4" t="n">
-        <v>157.0604403452237</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>154.5170303828789</v>
@@ -27558,7 +27558,7 @@
         <v>129.3715892953087</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>32.04857142269692</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.54637954072466</v>
       </c>
       <c r="R4" t="n">
         <v>138.3012002237164</v>
@@ -27588,19 +27588,19 @@
         <v>208.9037734431248</v>
       </c>
       <c r="T4" t="n">
-        <v>224.2403064031859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2717278710641</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>154.4882084377721</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>82.20797324597413</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.09418201320187</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.53999045278835</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>20.15345284472873</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>12.27094238504949</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>118.9680317848987</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37.07702130325565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.716387032502098e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.389644451905042e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.333925562600295e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.202938916593652e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.946818357397724e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30517,16 +30517,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.933260040892399</v>
+        <v>1.933260040892401</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378929</v>
+        <v>19.7989993937893</v>
       </c>
       <c r="I2" t="n">
-        <v>74.5320077265043</v>
+        <v>74.53200772650435</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0830293956914</v>
+        <v>164.0830293956915</v>
       </c>
       <c r="K2" t="n">
-        <v>245.9179269266668</v>
+        <v>245.9179269266669</v>
       </c>
       <c r="L2" t="n">
-        <v>305.0829339031276</v>
+        <v>305.0829339031278</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553478</v>
+        <v>339.463547155348</v>
       </c>
       <c r="N2" t="n">
-        <v>344.9564222465334</v>
+        <v>344.9564222465335</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149095</v>
+        <v>325.7325677149097</v>
       </c>
       <c r="P2" t="n">
-        <v>278.0052104553783</v>
+        <v>278.0052104553785</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.7703352409193</v>
+        <v>208.7703352409194</v>
       </c>
       <c r="R2" t="n">
-        <v>121.4401460437073</v>
+        <v>121.4401460437074</v>
       </c>
       <c r="S2" t="n">
-        <v>44.0541631818356</v>
+        <v>44.05416318183562</v>
       </c>
       <c r="T2" t="n">
-        <v>8.462845829006483</v>
+        <v>8.462845829006488</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1546608032713919</v>
+        <v>0.154660803271392</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034385313388797</v>
+        <v>1.034385313388798</v>
       </c>
       <c r="H3" t="n">
-        <v>9.989984474044439</v>
+        <v>9.989984474044444</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886869</v>
+        <v>35.61370486886871</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678986</v>
+        <v>97.72672822678992</v>
       </c>
       <c r="K3" t="n">
-        <v>167.0305442238393</v>
+        <v>167.0305442238394</v>
       </c>
       <c r="L3" t="n">
-        <v>224.5931795583878</v>
+        <v>224.5931795583879</v>
       </c>
       <c r="M3" t="n">
-        <v>262.0896471687316</v>
+        <v>262.0896471687318</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0263802572031</v>
+        <v>269.0263802572032</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1065793657986</v>
+        <v>246.1065793657988</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5222270803573</v>
+        <v>197.5222270803574</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.0383778985419</v>
+        <v>132.038377898542</v>
       </c>
       <c r="R3" t="n">
-        <v>64.2226249839115</v>
+        <v>64.22262498391153</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842787</v>
+        <v>19.21325351842788</v>
       </c>
       <c r="T3" t="n">
-        <v>4.1692986973873</v>
+        <v>4.169298697387302</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06805166535452617</v>
+        <v>0.06805166535452621</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8671938994904641</v>
+        <v>0.8671938994904647</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560678</v>
+        <v>7.710142124560682</v>
       </c>
       <c r="I4" t="n">
-        <v>26.0788856319496</v>
+        <v>26.07888563194962</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397581</v>
+        <v>61.31060869397585</v>
       </c>
       <c r="K4" t="n">
         <v>100.752163958983</v>
@@ -31218,28 +31218,28 @@
         <v>135.9365855355825</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7043173647545</v>
+        <v>132.7043173647546</v>
       </c>
       <c r="O4" t="n">
-        <v>122.5739159025249</v>
+        <v>122.573915902525</v>
       </c>
       <c r="P4" t="n">
         <v>104.8831603529194</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.61566371096968</v>
+        <v>72.61566371096973</v>
       </c>
       <c r="R4" t="n">
-        <v>38.99219115345304</v>
+        <v>38.99219115345306</v>
       </c>
       <c r="S4" t="n">
-        <v>15.11282459384745</v>
+        <v>15.11282459384746</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095619</v>
+        <v>3.705283025095621</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04730148542675264</v>
+        <v>0.04730148542675267</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747752</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>267.5398078833302</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>293.7693957029132</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4971006716332</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>152.1337400410789</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>63.83812067181486</v>
+        <v>349.9734884528511</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835908</v>
+        <v>352.9761057436326</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6308474209076</v>
+        <v>558.6308474209077</v>
       </c>
       <c r="N2" t="n">
-        <v>552.8902830619265</v>
+        <v>552.8902830619268</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559682</v>
+        <v>476.4345375559683</v>
       </c>
       <c r="P2" t="n">
-        <v>46.7722147001088</v>
+        <v>46.77221470010898</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.7796360263744</v>
+        <v>198.7796360263746</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>166.2134596167028</v>
+        <v>293.654342262059</v>
       </c>
       <c r="L3" t="n">
-        <v>86.03879977851361</v>
+        <v>352.460236409886</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6606769967132</v>
+        <v>585.6606769967134</v>
       </c>
       <c r="N3" t="n">
-        <v>617.0270425174233</v>
+        <v>617.0270425174234</v>
       </c>
       <c r="O3" t="n">
-        <v>497.3726541980838</v>
+        <v>103.5103349213543</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0105883059642</v>
+        <v>382.0105883059643</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1338915483695</v>
+        <v>202.1338915483696</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310014</v>
+        <v>78.48267213310019</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5181073718348</v>
+        <v>156.5181073718349</v>
       </c>
       <c r="M4" t="n">
         <v>175.5204624974231</v>
       </c>
       <c r="N4" t="n">
-        <v>176.8364897439831</v>
+        <v>176.8364897439832</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1590438165646</v>
+        <v>147.1590438165647</v>
       </c>
       <c r="P4" t="n">
-        <v>102.1617196178128</v>
+        <v>102.1617196178129</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>319.4946385855635</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>279.1933009447059</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>429.9910795364895</v>
       </c>
       <c r="M6" t="n">
-        <v>551.3061282228267</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.926303694901</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>136.1980957999969</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>159.794988288583</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,10 +35881,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>57.65947400496653</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
